--- a/画面設計書（社員情報）.xlsx
+++ b/画面設計書（社員情報）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Yu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\yu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B002C06A-54C3-4701-AE87-B2EFD2098093}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006B79EF-0604-40D2-9BB6-B0CBA5D1C194}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="項目一覧" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="99">
   <si>
     <t>項目名</t>
   </si>
@@ -708,6 +708,153 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>ギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8桁固定。</t>
+    <rPh sb="1" eb="2">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横16文字。</t>
+    <rPh sb="0" eb="1">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横32文字。</t>
+    <rPh sb="0" eb="1">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横1文字。</t>
+    <rPh sb="0" eb="1">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン押下後、ＤＢを更新し、閲覧画面に戻る。</t>
+    <rPh sb="3" eb="5">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■部署選択画面</t>
+    <rPh sb="1" eb="3">
+      <t>ブショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択：</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラジオボタン。1つのみ選択可能。</t>
+    <rPh sb="11" eb="13">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択：</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録画面へ遷移し、選択の部署を反映する。</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ブショ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャンセル：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録画面へ遷移し、選択の部署を反映しない。</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ブショ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハンエイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -12007,825 +12154,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="グループ化 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66F7713E-C8D2-401F-B1B3-0DA7151B4361}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="723900" y="14963775"/>
-          <a:ext cx="6838950" cy="4629150"/>
-          <a:chOff x="723900" y="7515225"/>
-          <a:chExt cx="6838950" cy="4629150"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="正方形/長方形 2">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21FD8D9C-B460-40D9-970C-E870B1A40BA6}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="723900" y="7515225"/>
-            <a:ext cx="6838950" cy="4629150"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>ｃ</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="正方形/長方形 3">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{652F2D7F-DB31-40DC-8473-A8554A254402}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2209800" y="8181974"/>
-            <a:ext cx="1323975" cy="295275"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>NNNNNNNN</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="正方形/長方形 4">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F450097-430C-47DB-BFA2-6362137099C6}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1238251" y="8191499"/>
-            <a:ext cx="676274" cy="295275"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>役職</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>ID</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="正方形/長方形 5">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D65D0D93-0F8F-4662-870D-8A580270058F}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1238251" y="8705849"/>
-            <a:ext cx="676274" cy="295275"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>役職名</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="正方形/長方形 6">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEC6436E-18DF-43A5-A65C-7E94A9DB495C}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2209799" y="8696325"/>
-            <a:ext cx="4724401" cy="571500"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>ＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮ</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>ＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮ</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="正方形/長方形 7">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEF9BBAD-5087-4E42-81B7-B4B8BE98C0DE}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1238251" y="9448799"/>
-            <a:ext cx="676274" cy="295275"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>備考</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="正方形/長方形 8">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B3A8A28-0A7C-4C07-B18E-F51EF29974A0}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2209799" y="9439275"/>
-            <a:ext cx="4724401" cy="2105024"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>ＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮ</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>ＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮ</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>ＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮ</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>ＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮ</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>ＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮ</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>ＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮ</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>ＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮ</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="正方形/長方形 9">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E64C9B05-40AA-4F58-ABF7-F9B098EC9758}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1809751" y="8172449"/>
-            <a:ext cx="314324" cy="295275"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>：</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="正方形/長方形 10">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09DF4183-C07F-4664-A8BF-B26E063BFAB9}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1800225" y="8696324"/>
-            <a:ext cx="314324" cy="295275"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>：</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="正方形/長方形 11">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7542EAB5-C9AD-45A4-A0AC-982CD165194A}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1800225" y="9439274"/>
-            <a:ext cx="314324" cy="295275"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>：</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="正方形/長方形 12">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97ECCCEC-88E4-4782-9945-D3865E061AE1}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="942975" y="7686675"/>
-            <a:ext cx="1152525" cy="295275"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>■役職情報</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
       <xdr:colOff>104774</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
@@ -13487,1109 +12815,6 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>163</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="28" name="グループ化 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AE2F5FD-4B03-4E67-8510-6FF2AE305B15}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="704850" y="21107400"/>
-          <a:ext cx="6838950" cy="5410199"/>
-          <a:chOff x="714375" y="352425"/>
-          <a:chExt cx="6838950" cy="5410199"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="29" name="正方形/長方形 28">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC22AA83-7A95-4253-87E9-B0977AA17CD7}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="714375" y="352425"/>
-            <a:ext cx="6838950" cy="5410199"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>ｃ</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="30" name="正方形/長方形 29">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA54ABE8-F8DB-40C7-9A61-E0C9760CB671}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2200275" y="1019175"/>
-            <a:ext cx="1323975" cy="295275"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>NNNNNNNN</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="31" name="正方形/長方形 30">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BDBE221-A21B-4EDF-BE3B-02A1631C0433}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1228726" y="1028700"/>
-            <a:ext cx="676274" cy="295275"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>役職</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>ID</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="32" name="正方形/長方形 31">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE87B3D5-918E-4D16-A548-610E9ED03C64}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1228726" y="1543050"/>
-            <a:ext cx="676274" cy="295275"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>役職名</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="33" name="正方形/長方形 32">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCA13DEB-0F05-47EA-9FD8-337F9CD8142F}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2200274" y="1533526"/>
-            <a:ext cx="4724401" cy="571500"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>ＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮ</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>ＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮ</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="34" name="正方形/長方形 33">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F7D5F1E-3C4C-457D-8F7C-512EF3AA495D}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1228726" y="2286000"/>
-            <a:ext cx="676274" cy="295275"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>備考</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="35" name="正方形/長方形 34">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{926CCC01-0701-475F-AF5C-22DD82113514}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2200274" y="2276476"/>
-            <a:ext cx="4724401" cy="2105024"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>ＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮ</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>ＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮ</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>ＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮ</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>ＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮ</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>ＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮ</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>ＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮ</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>ＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮ</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="36" name="正方形/長方形 35">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03181FDE-B8F3-4154-9B2B-473537C3429B}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1800226" y="1009650"/>
-            <a:ext cx="314324" cy="295275"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>：</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="37" name="正方形/長方形 36">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17475A26-DD43-4FA8-A40F-DB2BD87CF437}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1790700" y="1533525"/>
-            <a:ext cx="314324" cy="295275"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>：</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="38" name="正方形/長方形 37">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{753F9B89-68BE-454F-84C2-B2F2CBA7B6A7}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1790700" y="2276475"/>
-            <a:ext cx="314324" cy="295275"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>：</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="39" name="正方形/長方形 38">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EC8A06A-518E-447E-BB5D-ABD752A2605C}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4972050" y="4953000"/>
-            <a:ext cx="876300" cy="400050"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>保存</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="40" name="正方形/長方形 39">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49BF3A3A-6812-4B5B-96CD-797AF2389D8A}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6038850" y="4953000"/>
-            <a:ext cx="876300" cy="400050"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>キャンセル</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="41" name="正方形/長方形 40">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A354ACF-BE44-4D5B-89A3-B3E63092B46F}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="914400" y="504825"/>
-            <a:ext cx="1257300" cy="295275"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>■役職情報変更</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="正方形/長方形 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{808F4D26-3012-4B3A-B7C5-F8F83B602557}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4772025" y="18935700"/>
-          <a:ext cx="876300" cy="400050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>編集</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="正方形/長方形 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CD9A95A-2D8A-41B8-B7BC-AA8D7990BEE8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5876925" y="18935700"/>
-          <a:ext cx="876300" cy="400050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>戻る</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -15069,168 +13294,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>238126</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="87" name="正方形/長方形 86">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B42541F-4CDE-47D4-8088-25930E75D7C5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="600075" y="14906625"/>
-          <a:ext cx="7096126" cy="5772150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-            <a:alpha val="90000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1" i="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>工事中</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>238126</xdr:colOff>
-      <xdr:row>171</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="88" name="正方形/長方形 87">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{980EE958-97D6-4FAF-B471-3984A03C5F78}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="600075" y="21040725"/>
-          <a:ext cx="7096126" cy="6762750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-            <a:alpha val="90000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1" i="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>工事中</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -18918,6 +16981,6656 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="119" name="グループ化 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEEA376A-8FBE-40E1-B66F-170A806EFE73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="714374" y="14925675"/>
+          <a:ext cx="7258051" cy="4429125"/>
+          <a:chOff x="714374" y="352425"/>
+          <a:chExt cx="7258051" cy="4429125"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="121" name="正方形/長方形 120">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD256281-FA6D-4EF4-8EC1-476C6A9A8BE8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="714374" y="352425"/>
+            <a:ext cx="7258051" cy="4429125"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>ｃ</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="123" name="正方形/長方形 122">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C19E8536-E422-49E2-8131-03818519B022}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2524125" y="1019175"/>
+            <a:ext cx="1323975" cy="295275"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>NNNNNNNN</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="124" name="正方形/長方形 123">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC7B1172-A4E9-4174-8D11-C1FA828659DB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1228726" y="1028700"/>
+            <a:ext cx="676274" cy="295275"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>社員</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>ID</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="125" name="正方形/長方形 124">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8600B3D5-C9F0-4F27-9324-7040CB9941C3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1228725" y="1409700"/>
+            <a:ext cx="1085849" cy="295275"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>名前（漢字）</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="129" name="正方形/長方形 128">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9670584-7BC5-4B01-8B79-5AC3843894F0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2524124" y="1400177"/>
+            <a:ext cx="1323976" cy="314324"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>ＮＮＮＮＮＮＮＮ</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="131" name="正方形/長方形 130">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28D939A0-B1FF-4BE7-AE46-DF74FE4A3C76}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2124076" y="1009650"/>
+            <a:ext cx="314324" cy="295275"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>：</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="144" name="正方形/長方形 143">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD3424E6-C1D9-4043-8719-F5290DD99082}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2143125" y="1371600"/>
+            <a:ext cx="314324" cy="295275"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>：</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="145" name="正方形/長方形 144">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ED175B6-2C1F-42C8-91F6-0266DA5B2A3D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5162550" y="4048125"/>
+            <a:ext cx="876300" cy="400050"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>編集</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="147" name="正方形/長方形 146">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0494AB76-A55A-4228-814E-B2B9D08B4BFC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6353175" y="4048125"/>
+            <a:ext cx="876300" cy="400050"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>戻る</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="150" name="正方形/長方形 149">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1BAD7BD-17D4-4F67-B578-A4D69CFB7ABD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="914400" y="504825"/>
+            <a:ext cx="1152525" cy="295275"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>■社員登録</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="151" name="正方形/長方形 150">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FC4B639-9EAC-4C7D-8F94-8228A3236BAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="9734550"/>
+          <a:ext cx="1085849" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>名前（カナ）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>9527</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="153" name="正方形/長方形 152">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92293614-74BF-46DA-8A66-A27E7592166D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2524124" y="9725027"/>
+          <a:ext cx="2466976" cy="314324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="154" name="正方形/長方形 153">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFCD4BEB-67CD-4C3C-A70A-6DA98983E052}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="9696450"/>
+          <a:ext cx="314324" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="155" name="正方形/長方形 154">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6AD6E2B-79F8-4E27-AFE2-5712E0D10DBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4057650" y="9344025"/>
+          <a:ext cx="676274" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>性別</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="156" name="正方形/長方形 155">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0D62CC1-83DE-4DEF-B1DC-60931BFA819C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4438650" y="9324975"/>
+          <a:ext cx="314324" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="157" name="正方形/長方形 156">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D68BE95C-CB4B-4114-9946-8213757232A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4714874" y="9324975"/>
+          <a:ext cx="1352551" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>N</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="158" name="正方形/長方形 157">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CCE49C3-94AF-42AC-82BA-D86325E0B924}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="10134600"/>
+          <a:ext cx="1085849" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>名前（英字）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>552448</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>85727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="159" name="正方形/長方形 158">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45BEE4FE-820D-45DC-B09F-7DDADC334E32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2524123" y="10125077"/>
+          <a:ext cx="4714877" cy="314324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>NNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNN</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="160" name="正方形/長方形 159">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E0FB424-4A6E-445C-A747-4F23BD797352}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="10096500"/>
+          <a:ext cx="314324" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>619126</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="161" name="正方形/長方形 160">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFEC04C0-92C0-42DF-82C0-B2AF05D61FF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228726" y="10572750"/>
+          <a:ext cx="819150" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>部署</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="162" name="正方形/長方形 161">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B50D791-0855-4AEE-B630-46A4F4D5A1E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="10553700"/>
+          <a:ext cx="314324" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>619126</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="163" name="正方形/長方形 162">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D245FE85-5433-4511-9EA5-2AFA18BD63C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228726" y="11306175"/>
+          <a:ext cx="819150" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>役職</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="164" name="正方形/長方形 163">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{398DE0BB-A197-43C1-9437-95A238D70FD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="11287125"/>
+          <a:ext cx="314324" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>552448</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>133352</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="165" name="正方形/長方形 164">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D4D6714-5E73-47AC-836E-54B37F62997D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2524123" y="11306177"/>
+          <a:ext cx="1933577" cy="314324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ＮＮＮＮＮＮＮＮ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>552448</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="166" name="正方形/長方形 165">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21F22B48-748D-4D20-99D4-26CC754829C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2524123" y="10572751"/>
+          <a:ext cx="4714877" cy="619123"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="167" name="正方形/長方形 166">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBFBD568-5DF9-42F8-8D13-49528769FB85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1695451" y="10572750"/>
+          <a:ext cx="485774" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>選択</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="168" name="グループ化 167">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B50C004-E557-4204-82F2-9288C764C36A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="714374" y="21726525"/>
+          <a:ext cx="7258051" cy="4429125"/>
+          <a:chOff x="714374" y="352425"/>
+          <a:chExt cx="7258051" cy="4429125"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="169" name="正方形/長方形 168">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C92A30A-FD43-4DF9-803A-B06E4D290F9C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="714374" y="352425"/>
+            <a:ext cx="7258051" cy="4429125"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>ｃ</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="170" name="正方形/長方形 169">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50B1906B-4FCE-4DCF-A180-7DB7C2AD6C2B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2524125" y="1019175"/>
+            <a:ext cx="1323975" cy="295275"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>NNNNNNNN</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="171" name="正方形/長方形 170">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D6D1BC9-60A9-495C-95A5-F732F1E4EE22}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1228726" y="1028700"/>
+            <a:ext cx="676274" cy="295275"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>社員</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>ID</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="172" name="正方形/長方形 171">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8902ECE-F653-493F-9A35-334720AC5DE1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1228725" y="1409700"/>
+            <a:ext cx="1085849" cy="295275"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>名前（漢字）</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="173" name="正方形/長方形 172">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCDBE41F-4CB5-4F79-B2F4-E78322982EC6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2524124" y="1400177"/>
+            <a:ext cx="1323976" cy="314324"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>ＮＮＮＮＮＮＮＮ</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="174" name="正方形/長方形 173">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5052D2D9-FF85-4D96-9389-48760F173D85}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2124076" y="1009650"/>
+            <a:ext cx="314324" cy="295275"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>：</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="175" name="正方形/長方形 174">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BA2EE67-CE63-4352-8EF7-2B26BB51EAFA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2143125" y="1371600"/>
+            <a:ext cx="314324" cy="295275"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>：</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="176" name="正方形/長方形 175">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86275352-26AB-4EB3-B204-D2C218477478}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5162550" y="4048125"/>
+            <a:ext cx="876300" cy="400050"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>保存</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="177" name="正方形/長方形 176">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F181A73-AB8B-43B3-9D45-BE75BF7E3BE3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6353175" y="4048125"/>
+            <a:ext cx="876300" cy="400050"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>キャンセル</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="178" name="正方形/長方形 177">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F8372E6-3EA4-438C-819A-B8AE3E32AB5D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="914400" y="504825"/>
+            <a:ext cx="1152525" cy="295275"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>■社員登録</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="179" name="正方形/長方形 178">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{289D6B91-3B91-47CD-93A9-876189B0D140}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="9734550"/>
+          <a:ext cx="1085849" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>名前（カナ）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>9527</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="180" name="正方形/長方形 179">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADA7903C-5AE8-4BEB-B04E-D0B8140EF2A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2524124" y="9725027"/>
+          <a:ext cx="2466976" cy="314324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="181" name="正方形/長方形 180">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA2A6A1B-F157-4565-A6C9-89C39690B234}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="9696450"/>
+          <a:ext cx="314324" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="182" name="正方形/長方形 181">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B6AE166-FE7E-4F35-8714-8BE50B8C7464}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4057650" y="9344025"/>
+          <a:ext cx="676274" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>性別</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="183" name="正方形/長方形 182">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E87D9706-FA9B-4248-8969-C19EE7F43796}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4438650" y="9324975"/>
+          <a:ext cx="314324" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="184" name="正方形/長方形 183">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA14B4DC-8DA5-400A-8325-BA9166E40A39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4714874" y="9324975"/>
+          <a:ext cx="1352551" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>●　男　　〇　女</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="185" name="正方形/長方形 184">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75D91F17-3D78-4C01-83C3-50DAAA54E2CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="10134600"/>
+          <a:ext cx="1085849" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>名前（英字）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>552448</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>85727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="186" name="正方形/長方形 185">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{284D4025-E449-4E30-B77A-E7098DDE0F7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2524123" y="10125077"/>
+          <a:ext cx="4714877" cy="314324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>NNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNN</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="187" name="正方形/長方形 186">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A91AF7E-F269-432C-A46B-4CBD60717600}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="10096500"/>
+          <a:ext cx="314324" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>619126</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="188" name="正方形/長方形 187">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72D26DF1-C3C5-47CB-B4A4-13A99999F71A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228726" y="10572750"/>
+          <a:ext cx="819150" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>部署</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="189" name="正方形/長方形 188">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78AD533F-810A-470F-A65E-DB3EE26AEBFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="10553700"/>
+          <a:ext cx="314324" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>619126</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="190" name="正方形/長方形 189">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DC2E8CA-334D-4AF9-8B7E-E0F659CC3311}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228726" y="11306175"/>
+          <a:ext cx="819150" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>役職</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="191" name="正方形/長方形 190">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98C2DBFE-20F0-4A99-BBE3-2CD78B934C29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="11287125"/>
+          <a:ext cx="314324" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>552448</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>133352</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="192" name="正方形/長方形 191">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B3E1B49-5114-4697-984A-5C9BBB54F856}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2524123" y="11306177"/>
+          <a:ext cx="1933577" cy="314324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ＮＮＮＮＮＮＮＮ　　　　　▼</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>552448</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="193" name="正方形/長方形 192">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5108E5ED-ACB3-4862-A47E-1F24B44743D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2524123" y="10572751"/>
+          <a:ext cx="4714877" cy="619123"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="194" name="正方形/長方形 193">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48965DE9-3117-4922-9CF0-45C3A60E3775}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1695451" y="10572750"/>
+          <a:ext cx="485774" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>選択</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="196" name="正方形/長方形 195">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D55BA3A9-B283-4B8F-8073-EE507E2BDC18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714374" y="28432125"/>
+          <a:ext cx="7258051" cy="4657725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="197" name="正方形/長方形 196">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7EFD36D-DB5D-4A29-AEDA-739525719141}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1704976" y="29060774"/>
+          <a:ext cx="676274" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>部署</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="198" name="正方形/長方形 197">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C15456C-6BDD-432E-A57B-F42D76D9210D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2686051" y="29070299"/>
+          <a:ext cx="676274" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>部署名</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="199" name="正方形/長方形 198">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B68C5664-42B8-45C3-BEBC-67DA86618E21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1724025" y="29079824"/>
+          <a:ext cx="1000125" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="200" name="正方形/長方形 199">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44F8972E-3042-4893-8554-4CEBFE148215}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2724149" y="29079824"/>
+          <a:ext cx="4562475" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>590551</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="201" name="正方形/長方形 200">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94495B47-29A6-4E15-9817-560A8360C4DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="942976" y="28603574"/>
+          <a:ext cx="1009650" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>■部署選択</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="202" name="グループ化 201">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F091521-5942-448A-B857-B6CF28687562}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1695451" y="29365575"/>
+          <a:ext cx="5705474" cy="571500"/>
+          <a:chOff x="1228726" y="13039725"/>
+          <a:chExt cx="5705474" cy="571500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="224" name="正方形/長方形 223">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A599E3B3-FFC6-44BD-AD4F-9B3C9AFD403D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1228726" y="13134974"/>
+            <a:ext cx="1047750" cy="295275"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>NNNNNNNN</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="225" name="正方形/長方形 224">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32FAAC8B-E763-45F6-BB00-89DA9CFD7B01}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2209799" y="13039725"/>
+            <a:ext cx="4724401" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>ＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮ</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>ＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮ</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="226" name="正方形/長方形 225">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6076330D-505B-4F72-B8EC-C1F9F26D6C8E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1257300" y="13049249"/>
+            <a:ext cx="1000125" cy="552451"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="227" name="正方形/長方形 226">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72C7A2E8-6818-4064-AB25-470444102EB8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2257425" y="13049249"/>
+            <a:ext cx="4562475" cy="552451"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="203" name="グループ化 202">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{846D019B-AB65-4CCD-8231-2D43A4078CE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1695451" y="29918025"/>
+          <a:ext cx="5705474" cy="571500"/>
+          <a:chOff x="1228726" y="13039725"/>
+          <a:chExt cx="5705474" cy="571500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="220" name="正方形/長方形 219">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0F107F8-D958-4765-8016-95AC4FE9F5AA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1228726" y="13134974"/>
+            <a:ext cx="1047750" cy="295275"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>NNNNNNNN</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="221" name="正方形/長方形 220">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAD4902B-1DFD-4C65-99A7-67539F2A8EB5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2209799" y="13039725"/>
+            <a:ext cx="4724401" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>ＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮ</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>ＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮ</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="222" name="正方形/長方形 221">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04BA1D9A-7F16-40FC-89F8-611F373997FA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1257300" y="13049249"/>
+            <a:ext cx="1000125" cy="552451"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="223" name="正方形/長方形 222">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45957CDE-03D6-426E-9A95-22F12D06AE30}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2257425" y="13049249"/>
+            <a:ext cx="4562475" cy="552451"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="204" name="グループ化 203">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA020137-E833-40FA-B484-9AFE23A44610}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1695450" y="30470475"/>
+          <a:ext cx="5705474" cy="571500"/>
+          <a:chOff x="1228726" y="13039725"/>
+          <a:chExt cx="5705474" cy="571500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="216" name="正方形/長方形 215">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{659E88B6-29D7-4075-99E4-94D5A896897D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1228726" y="13134974"/>
+            <a:ext cx="1047750" cy="295275"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>NNNNNNNN</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="217" name="正方形/長方形 216">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1865AB9D-9152-40AC-8E3F-364EC1AC64C3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2209799" y="13039725"/>
+            <a:ext cx="4724401" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>ＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮ</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>ＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮ</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="218" name="正方形/長方形 217">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ABAFC2D-47DD-48F8-B14F-51730AE29751}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1257300" y="13049249"/>
+            <a:ext cx="1000125" cy="552451"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="219" name="正方形/長方形 218">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4690990-8566-4D08-A444-1D26AB3DB958}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2257425" y="13049249"/>
+            <a:ext cx="4562475" cy="552451"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="205" name="グループ化 204">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDD623ED-63BD-40FF-98B0-A853B2AAD1E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1695450" y="31022925"/>
+          <a:ext cx="5705474" cy="571500"/>
+          <a:chOff x="1228726" y="13039725"/>
+          <a:chExt cx="5705474" cy="571500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="212" name="正方形/長方形 211">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76C8175A-3E97-426F-89EE-209D126260E1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1228726" y="13134974"/>
+            <a:ext cx="1047750" cy="295275"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>NNNNNNNN</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="213" name="正方形/長方形 212">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2CC5B70-7FAC-4675-AA90-FBA45D146F43}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2209799" y="13039725"/>
+            <a:ext cx="4724401" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>ＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮ</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>ＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮ</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="214" name="正方形/長方形 213">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDD5D0B6-4841-4926-90AD-973BED845622}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1257300" y="13049249"/>
+            <a:ext cx="1000125" cy="552451"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="215" name="正方形/長方形 214">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32664FBA-C47C-4FE0-87E1-E244E6B1FCB2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2257425" y="13049249"/>
+            <a:ext cx="4562475" cy="552451"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="206" name="グループ化 205">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C663575-2EB1-4CE8-A5AC-D4DD9716AD5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1695450" y="31575375"/>
+          <a:ext cx="5705474" cy="571500"/>
+          <a:chOff x="1228726" y="13039725"/>
+          <a:chExt cx="5705474" cy="571500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="208" name="正方形/長方形 207">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52D04498-6C80-4BAB-96BA-AB4DD1732C59}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1228726" y="13134974"/>
+            <a:ext cx="1047750" cy="295275"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>NNNNNNNN</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="209" name="正方形/長方形 208">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3962E276-7FFE-483C-BB3A-327B5C339003}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2209799" y="13039725"/>
+            <a:ext cx="4724401" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>ＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮ</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>ＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮ</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="210" name="正方形/長方形 209">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB467601-7CE4-4356-912F-412B8A575534}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1257300" y="13049249"/>
+            <a:ext cx="1000125" cy="552451"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="211" name="正方形/長方形 210">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34663A1D-3152-4686-881F-956DB30F7761}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2257425" y="13049249"/>
+            <a:ext cx="4562475" cy="552451"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="207" name="正方形/長方形 206">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67CD2B8B-E9AE-4566-9596-73C8AADBA8EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5314950" y="32394525"/>
+          <a:ext cx="876300" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>選択</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="228" name="正方形/長方形 227">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C60F1354-7BDC-44A1-9A70-E1813D1867A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1257300" y="29079824"/>
+          <a:ext cx="466725" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>選択</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>647699</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="229" name="正方形/長方形 228">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D229A7F6-389D-4C18-A5A7-1AD2C764A66D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1257299" y="29375099"/>
+          <a:ext cx="466725" cy="552451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>〇</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="231" name="正方形/長方形 230">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDFD97F6-F534-4506-A2B5-FFC22FE15C42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1257300" y="29927549"/>
+          <a:ext cx="466725" cy="552451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>〇</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="232" name="正方形/長方形 231">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A603BD63-7A8D-4237-B164-8DD26D49A4D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1257300" y="30479999"/>
+          <a:ext cx="466725" cy="552451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>〇</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="233" name="正方形/長方形 232">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B5B810A-2551-4BC6-A0BF-0DD8974BAFB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1257300" y="31032450"/>
+          <a:ext cx="466725" cy="552451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>〇</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="234" name="正方形/長方形 233">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F610A564-82F9-41C0-AE89-F64A75CF2E31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1257300" y="31584900"/>
+          <a:ext cx="466725" cy="552451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>〇</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="235" name="正方形/長方形 234">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5E3DAC2-B211-436E-B82E-3FB95D16D55E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6410325" y="32394525"/>
+          <a:ext cx="876300" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>キャンセル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="236" name="正方形/長方形 235">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86BAAD62-E40A-4210-B0B2-54D20A466B68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7286625" y="29375100"/>
+          <a:ext cx="219075" cy="2762250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>△</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>▽</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="237" name="正方形/長方形 236">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B2383E3-0B5E-4AFB-ACEA-02A9EE4EA5D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7286625" y="29079825"/>
+          <a:ext cx="219075" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -19223,9 +23936,7 @@
   </sheetPr>
   <dimension ref="A2:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -20062,9 +24773,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7054C59D-8236-4C62-BD09-1587DF2E917B}">
-  <dimension ref="A2:G172"/>
+  <dimension ref="A2:G211"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -20213,98 +24924,210 @@
         <v>32</v>
       </c>
     </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B123" s="10" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
     </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B124" s="10" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B125" s="10" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B126" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B127" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B128" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F128" s="10"/>
+      <c r="G128" s="10"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B129" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B130" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C126" s="10" t="s">
+      <c r="C130" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B127" s="10" t="s">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B131" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C127" s="10" t="s">
+      <c r="C131" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A130" s="10" t="s">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B164" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C164" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B165" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C165" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B166" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C166" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B167" s="10" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B168" s="10" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B169" s="10" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>68</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="F169" s="10"/>
+      <c r="G169" s="10"/>
     </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B170" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C170" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B171" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C170" s="10" t="s">
-        <v>51</v>
+      <c r="C171" s="10" t="s">
+        <v>91</v>
       </c>
     </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B171" s="10" t="s">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B172" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C171" s="10" t="s">
+      <c r="C172" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B172" s="10"/>
-      <c r="C172" s="10"/>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A175" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B175" s="10"/>
+      <c r="C175" s="10"/>
+    </row>
+    <row r="207" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B207" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C207" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="208" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B208" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C208" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B209" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C209" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B210" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C210" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="211" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B211" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C211" s="10" t="s">
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>